--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5962,7 +5963,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -5978,6 +5978,3208 @@
       </c>
       <c r="H64" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>445.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.6737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.8890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.3397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4382</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9385</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4537</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7960</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9185,4 +9186,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>398.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10496,4 +10497,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10505,7 +10506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10516,17 +10517,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10536,14 +10557,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.24</v>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>405.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10552,14 +10595,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>77.55</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10568,14 +10633,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.18000000000001</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10584,13 +10671,1557 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0680</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3661</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2787</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4230</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>71.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12120,7 +12121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12131,17 +12132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12151,14 +12172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.05</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12167,14 +12210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.24</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12183,14 +12248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77.55</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9979</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12199,14 +12286,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64.18000000000001</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -12215,13 +12324,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9955</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>71.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13583,7 +13584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13594,17 +13595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13614,14 +13635,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.24</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -13630,14 +13673,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.05</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -13646,14 +13711,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.24</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -13662,14 +13749,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77.55</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -13678,14 +13787,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>63</v>
-      </c>
-      <c r="D6" t="n">
-        <v>64.18000000000001</v>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -13694,13 +13825,1285 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0790</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>71.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>48.82</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>51.24</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>54.05</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>52.24</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>77.55</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>64.18000000000001</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>71.84</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7880</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2755</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9258</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1985,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3447,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5061,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6371,7 +7546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9573,7 +10748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12016,7 +13191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
+++ b/数据整理/stocks/A股/创业板/300285-国瓷材料.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>28.44</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>48.82</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>54.05</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>52.24</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>77.55</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>64.18000000000001</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3126 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>80</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>71.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>304.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>306.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.8304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>159.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>382.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8529</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3576</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8690</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6311</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3730,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0207</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +6159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3160,7 +7545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4622,7 +9007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6236,7 +10621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7546,7 +11931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10748,7 +15133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13189,3100 +17574,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007119</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>304.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>13.5454</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国天惠成长混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>306.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10.8304</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000751</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>147.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>8.2337</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010186</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>159.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6.9736</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009795</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实远见精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.2947</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000595</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实泰和混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>72.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.8466</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>382.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.2560</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519035</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国天博创新混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>36.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8529</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009137</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实瑞和两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>38.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.8183</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100026</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国天合稳健混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>42.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.6872</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>070002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.5506</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007120</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>34.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.5143</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002593</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国美丽中国混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.3576</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.2184</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003494</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国天惠成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>32.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.1465</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000513</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8690</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519156</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.6771</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6687</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>470028</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富社会责任混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>19.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6311</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5866</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5520</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>070022</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实领先成长混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.5401</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001759</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实成长增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>95.27</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5200</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>100029</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国天成红利混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.76</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4197</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3609</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001040</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>新华策略精选股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3608</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010187</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>68.68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3553</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>97.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3242</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001036</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实企业变革股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3225</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>36.78</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>97.92</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003292</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实优势成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2139</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>96.50</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2074</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1987</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1693</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006336</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>泓德量化精选混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1367</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001541</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇添富民营新动力股票</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>24.08</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1348</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>19.49</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>97.24</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1144</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1028</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003658</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长盛量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>38.88</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>510560</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国寿安保中证500ETF</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>168101</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>九泰锐智事件驱动混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006478</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>长盛多因子策略优选股票</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005090</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005091</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>97.11</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>98.92</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>003760</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>660011</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>农银中证500指数</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>98.13</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>519157</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>159999</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>永赢中证500ETF</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>006611</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>人保中证500指数</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>003761</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>